--- a/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -275,10 +275,10 @@
     <t>Characteristic [organism common name]</t>
   </si>
   <si>
-    <t>Term Source REF (OBI:0100026)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (OBI:0100026)</t>
+    <t>Term Source REF (OBI:0003074)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0003074)</t>
   </si>
   <si>
     <t>Characteristic [subspecific genetic lineage rank]</t>
@@ -603,8 +603,8 @@
     <tableColumn id="27" name="Term Source REF (DPBO:0000032)" totalsRowFunction="none"/>
     <tableColumn id="28" name="Term Accession Number (DPBO:0000032)" totalsRowFunction="none"/>
     <tableColumn id="29" name="Characteristic [organism common name]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (OBI:0003074)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (OBI:0003074)" totalsRowFunction="none"/>
     <tableColumn id="32" name="Characteristic [subspecific genetic lineage rank]" totalsRowFunction="none"/>
     <tableColumn id="33" name="Term Source REF (DPBO:0000037)" totalsRowFunction="none"/>
     <tableColumn id="34" name="Term Accession Number (DPBO:0000037)" totalsRowFunction="none"/>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="179">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -431,7 +431,121 @@
     <t>Input1</t>
   </si>
   <si>
+    <t>sexual reproduction</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/GO:0019953</t>
+  </si>
+  <si>
+    <t>Fluvisol</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>Diseased</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C175249</t>
+  </si>
+  <si>
+    <t>Cercospora zeae-maydis</t>
+  </si>
+  <si>
+    <t>diploid</t>
+  </si>
+  <si>
+    <t>PATO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/PATO:0001394</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2.4 Gb</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>cultivar</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/EFO:0005136</t>
+  </si>
+  <si>
+    <t>B73</t>
+  </si>
+  <si>
+    <t>10 plants per 2 m row</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:00001998</t>
+  </si>
+  <si>
+    <t>KH2PO4 (170mg/L)</t>
+  </si>
+  <si>
+    <t>H3BO3 (6.2mg/L)</t>
+  </si>
+  <si>
+    <t>Nicotinic acid (0.5mg/L)</t>
+  </si>
+  <si>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/CHEBI:17992</t>
+  </si>
+  <si>
+    <t>0.5mg/L NAA</t>
+  </si>
+  <si>
+    <t>agar</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/CHEBI:2509</t>
+  </si>
+  <si>
+    <t>25 °C day, 18 °C night</t>
+  </si>
+  <si>
+    <t>40 kg P2O5 per hectar</t>
+  </si>
+  <si>
+    <t>rain-fed</t>
+  </si>
+  <si>
+    <t>drought environment</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EO_0007404</t>
+  </si>
+  <si>
+    <t>1000 µmol m-2 s-1, 16 h</t>
   </si>
   <si>
     <t>sample1</t>
@@ -1460,238 +1574,238 @@
         <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="O2" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="R2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="T2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="U2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="V2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="W2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="X2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Y2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Z2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="AA2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AB2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AC2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AD2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AE2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AF2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="AG2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AH2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="AI2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="AJ2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AL2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AM2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AN2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AO2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AP2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AQ2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="AR2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AS2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AT2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AU2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AV2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AW2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AX2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AY2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AZ2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BA2" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="BB2" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="BC2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="BD2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="BE2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BF2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="BH2" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="BI2" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="BJ2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="BK2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BL2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BM2" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="BN2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BO2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BP2" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="BQ2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BR2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BS2" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="BT2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BU2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BV2" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="BW2" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="BX2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="BY2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="BZ2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="CA2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="CB2" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Description</t>
@@ -248,10 +248,10 @@
     <t>Characteristic [ploidy]</t>
   </si>
   <si>
-    <t>Term Source REF (NCIT:C17001)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NCIT:C17001)</t>
+    <t>Term Source REF (PATO:0001374)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (PATO:0001374)</t>
   </si>
   <si>
     <t>Characteristic [number of replicons]</t>
@@ -708,8 +708,8 @@
     <tableColumn id="18" name="Term Source REF (PSO:0000013)" totalsRowFunction="none"/>
     <tableColumn id="19" name="Term Accession Number (PSO:0000013)" totalsRowFunction="none"/>
     <tableColumn id="20" name="Characteristic [ploidy]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (NCIT:C17001)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (NCIT:C17001)" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (PATO:0001374)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (PATO:0001374)" totalsRowFunction="none"/>
     <tableColumn id="23" name="Characteristic [number of replicons]" totalsRowFunction="none"/>
     <tableColumn id="24" name="Term Source REF (DPBO:0000031)" totalsRowFunction="none"/>
     <tableColumn id="25" name="Term Accession Number (DPBO:0000031)" totalsRowFunction="none"/>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Description</t>
@@ -191,7 +191,7 @@
     <t>Input [Source Name]</t>
   </si>
   <si>
-    <t>Characteristic [propagation]</t>
+    <t>Characteristic [reproductive process]</t>
   </si>
   <si>
     <t>Term Source REF (GO:0022414)</t>
@@ -200,7 +200,7 @@
     <t>Term Accession Number (GO:0022414)</t>
   </si>
   <si>
-    <t>Parameter [soil_taxonomic/FAO classification]</t>
+    <t>Parameter [soil]</t>
   </si>
   <si>
     <t>Term Source REF (ENVO:00001998)</t>
@@ -209,16 +209,16 @@
     <t>Term Accession Number (ENVO:00001998)</t>
   </si>
   <si>
-    <t>Parameter [soil pH]</t>
-  </si>
-  <si>
-    <t>Term Source REF (ENVO:09200010)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (ENVO:09200010)</t>
-  </si>
-  <si>
-    <t>Parameter [growth facility]</t>
+    <t>Parameter [Soil pH]</t>
+  </si>
+  <si>
+    <t>Term Source REF (MIAPPE:0124)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MIAPPE:0124)</t>
+  </si>
+  <si>
+    <t>Parameter [Growth facility]</t>
   </si>
   <si>
     <t>Term Source REF (MIAPPE:0095)</t>
@@ -227,7 +227,7 @@
     <t>Term Accession Number (MIAPPE:0095)</t>
   </si>
   <si>
-    <t>Characteristic [sample health state]</t>
+    <t>Characteristic [plant health state]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000034)</t>
@@ -236,7 +236,7 @@
     <t>Term Accession Number (DPBO:0000034)</t>
   </si>
   <si>
-    <t>Characteristic [sample disease status]</t>
+    <t>Characteristic [plant disease]</t>
   </si>
   <si>
     <t>Term Source REF (PSO:0000013)</t>
@@ -245,16 +245,16 @@
     <t>Term Accession Number (PSO:0000013)</t>
   </si>
   <si>
-    <t>Characteristic [ploidy]</t>
-  </si>
-  <si>
-    <t>Term Source REF (PATO:0001374)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (PATO:0001374)</t>
-  </si>
-  <si>
-    <t>Characteristic [number of replicons]</t>
+    <t>Characteristic [Ploidy]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C17001)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C17001)</t>
+  </si>
+  <si>
+    <t>Characteristic [number of chromosomes]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000031)</t>
@@ -263,7 +263,7 @@
     <t>Term Accession Number (DPBO:0000031)</t>
   </si>
   <si>
-    <t>Characteristic [estimated size]</t>
+    <t>Characteristic [estimated genome size]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000032)</t>
@@ -272,7 +272,7 @@
     <t>Term Accession Number (DPBO:0000032)</t>
   </si>
   <si>
-    <t>Characteristic [organism common name]</t>
+    <t>Characteristic [common name of organism]</t>
   </si>
   <si>
     <t>Term Source REF (OBI:0003074)</t>
@@ -281,7 +281,7 @@
     <t>Term Accession Number (OBI:0003074)</t>
   </si>
   <si>
-    <t>Characteristic [subspecific genetic lineage rank]</t>
+    <t>Characteristic [subspecific taxonomic rank]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000037)</t>
@@ -290,7 +290,7 @@
     <t>Term Accession Number (DPBO:0000037)</t>
   </si>
   <si>
-    <t>Characteristic [subspecific genetic lineage name]</t>
+    <t>Characteristic [Infraspecific name]</t>
   </si>
   <si>
     <t>Term Source REF (MIAPPE:0044)</t>
@@ -299,7 +299,7 @@
     <t>Term Accession Number (MIAPPE:0044)</t>
   </si>
   <si>
-    <t>Parameter [rooting conditions]</t>
+    <t>Parameter [Rooting condition]</t>
   </si>
   <si>
     <t>Term Source REF (MIAPPE:0115)</t>
@@ -308,7 +308,7 @@
     <t>Term Accession Number (MIAPPE:0115)</t>
   </si>
   <si>
-    <t>Parameter [culture rooting medium]</t>
+    <t>Parameter [Rooting medium]</t>
   </si>
   <si>
     <t>Term Source REF (MIAPPE:0116)</t>
@@ -380,7 +380,7 @@
     <t>Term Accession Number (DPBO:0000038)</t>
   </si>
   <si>
-    <t>Parameter [air temperature regimen]</t>
+    <t>Parameter [Air temperature]</t>
   </si>
   <si>
     <t>Term Source REF (MIAPPE:0096)</t>
@@ -389,7 +389,7 @@
     <t>Term Accession Number (MIAPPE:0096)</t>
   </si>
   <si>
-    <t>Parameter [mineral nutrient regimen]</t>
+    <t>Parameter [plant nutrient treatment]</t>
   </si>
   <si>
     <t>Term Source REF (EO:0007241)</t>
@@ -398,7 +398,7 @@
     <t>Term Accession Number (EO:0007241)</t>
   </si>
   <si>
-    <t>Parameter [watering regimen]</t>
+    <t>Parameter [watering exposure]</t>
   </si>
   <si>
     <t>Term Source REF (PECO:0007383)</t>
@@ -440,15 +440,21 @@
     <t>https://bioregistry.io/GO:0019953</t>
   </si>
   <si>
-    <t>Fluvisol</t>
+    <t>fluvisol</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/ENVO:00002273</t>
+  </si>
+  <si>
+    <t>5.2</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
     <t>field</t>
   </si>
   <si>
@@ -497,9 +503,6 @@
     <t>soil</t>
   </si>
   <si>
-    <t>ENVO</t>
-  </si>
-  <si>
     <t>https://bioregistry.io/ENVO:00001998</t>
   </si>
   <si>
@@ -527,7 +530,7 @@
     <t>https://bioregistry.io/CHEBI:2509</t>
   </si>
   <si>
-    <t>25 °C day, 18 °C night</t>
+    <t>25 °C day, 18°C night</t>
   </si>
   <si>
     <t>40 kg P2O5 per hectar</t>
@@ -689,46 +692,46 @@
   </autoFilter>
   <tableColumns count="80">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Characteristic [propagation]" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Characteristic [reproductive process]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (GO:0022414)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (GO:0022414)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [soil_taxonomic/FAO classification]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Parameter [soil]" totalsRowFunction="none"/>
     <tableColumn id="6" name="Term Source REF (ENVO:00001998)" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Accession Number (ENVO:00001998)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [soil pH]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (ENVO:09200010)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (ENVO:09200010)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [growth facility]" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Parameter [Soil pH]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (MIAPPE:0124)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (MIAPPE:0124)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Parameter [Growth facility]" totalsRowFunction="none"/>
     <tableColumn id="12" name="Term Source REF (MIAPPE:0095)" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Accession Number (MIAPPE:0095)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Characteristic [sample health state]" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Characteristic [plant health state]" totalsRowFunction="none"/>
     <tableColumn id="15" name="Term Source REF (DPBO:0000034)" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Accession Number (DPBO:0000034)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Characteristic [sample disease status]" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Characteristic [plant disease]" totalsRowFunction="none"/>
     <tableColumn id="18" name="Term Source REF (PSO:0000013)" totalsRowFunction="none"/>
     <tableColumn id="19" name="Term Accession Number (PSO:0000013)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Characteristic [ploidy]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (PATO:0001374)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (PATO:0001374)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Characteristic [number of replicons]" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Characteristic [Ploidy]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (NCIT:C17001)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (NCIT:C17001)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Characteristic [number of chromosomes]" totalsRowFunction="none"/>
     <tableColumn id="24" name="Term Source REF (DPBO:0000031)" totalsRowFunction="none"/>
     <tableColumn id="25" name="Term Accession Number (DPBO:0000031)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Characteristic [estimated size]" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Characteristic [estimated genome size]" totalsRowFunction="none"/>
     <tableColumn id="27" name="Term Source REF (DPBO:0000032)" totalsRowFunction="none"/>
     <tableColumn id="28" name="Term Accession Number (DPBO:0000032)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Characteristic [organism common name]" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Characteristic [common name of organism]" totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Source REF (OBI:0003074)" totalsRowFunction="none"/>
     <tableColumn id="31" name="Term Accession Number (OBI:0003074)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Characteristic [subspecific genetic lineage rank]" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Characteristic [subspecific taxonomic rank]" totalsRowFunction="none"/>
     <tableColumn id="33" name="Term Source REF (DPBO:0000037)" totalsRowFunction="none"/>
     <tableColumn id="34" name="Term Accession Number (DPBO:0000037)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Characteristic [subspecific genetic lineage name]" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Characteristic [Infraspecific name]" totalsRowFunction="none"/>
     <tableColumn id="36" name="Term Source REF (MIAPPE:0044)" totalsRowFunction="none"/>
     <tableColumn id="37" name="Term Accession Number (MIAPPE:0044)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Parameter [rooting conditions]" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Parameter [Rooting condition]" totalsRowFunction="none"/>
     <tableColumn id="39" name="Term Source REF (MIAPPE:0115)" totalsRowFunction="none"/>
     <tableColumn id="40" name="Term Accession Number (MIAPPE:0115)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Parameter [culture rooting medium]" totalsRowFunction="none"/>
+    <tableColumn id="41" name="Parameter [Rooting medium]" totalsRowFunction="none"/>
     <tableColumn id="42" name="Term Source REF (MIAPPE:0116)" totalsRowFunction="none"/>
     <tableColumn id="43" name="Term Accession Number (MIAPPE:0116)" totalsRowFunction="none"/>
     <tableColumn id="44" name="Parameter [rooting medium macronutrients]" totalsRowFunction="none"/>
@@ -752,13 +755,13 @@
     <tableColumn id="62" name="Parameter [rooting medium pH]" totalsRowFunction="none"/>
     <tableColumn id="63" name="Term Source REF (DPBO:0000038)" totalsRowFunction="none"/>
     <tableColumn id="64" name="Term Accession Number (DPBO:0000038)" totalsRowFunction="none"/>
-    <tableColumn id="65" name="Parameter [air temperature regimen]" totalsRowFunction="none"/>
+    <tableColumn id="65" name="Parameter [Air temperature]" totalsRowFunction="none"/>
     <tableColumn id="66" name="Term Source REF (MIAPPE:0096)" totalsRowFunction="none"/>
     <tableColumn id="67" name="Term Accession Number (MIAPPE:0096)" totalsRowFunction="none"/>
-    <tableColumn id="68" name="Parameter [mineral nutrient regimen]" totalsRowFunction="none"/>
+    <tableColumn id="68" name="Parameter [plant nutrient treatment]" totalsRowFunction="none"/>
     <tableColumn id="69" name="Term Source REF (EO:0007241)" totalsRowFunction="none"/>
     <tableColumn id="70" name="Term Accession Number (EO:0007241)" totalsRowFunction="none"/>
-    <tableColumn id="71" name="Parameter [watering regimen]" totalsRowFunction="none"/>
+    <tableColumn id="71" name="Parameter [watering exposure]" totalsRowFunction="none"/>
     <tableColumn id="72" name="Term Source REF (PECO:0007383)" totalsRowFunction="none"/>
     <tableColumn id="73" name="Term Accession Number (PECO:0007383)" totalsRowFunction="none"/>
     <tableColumn id="74" name="Parameter [plant treatment]" totalsRowFunction="none"/>
@@ -1586,226 +1589,226 @@
         <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O2" t="s">
         <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" t="s">
+        <v>153</v>
+      </c>
+      <c r="W2" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP2" t="s">
         <v>143</v>
       </c>
-      <c r="S2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T2" t="s">
-        <v>149</v>
-      </c>
-      <c r="U2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V2" t="s">
-        <v>151</v>
-      </c>
-      <c r="W2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>161</v>
-      </c>
       <c r="AQ2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AR2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AS2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AT2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AU2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AV2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AW2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AX2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AY2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AZ2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BA2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BB2" t="s">
         <v>38</v>
       </c>
       <c r="BC2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BD2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BE2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BF2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BG2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BH2" t="s">
         <v>38</v>
       </c>
       <c r="BI2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BJ2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BK2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BL2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BM2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BN2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BO2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BP2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BQ2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BR2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BS2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BT2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BU2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BV2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BW2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BX2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BY2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BZ2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="CA2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="CB2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
+++ b/templates/dataplant/ENA/ENA_-_Plant_sample_-_extension.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65FDEAB-B347-4F0A-BE08-2766C4397DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="New Table" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample_ext" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -50,9 +54,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>New Table</t>
-  </si>
-  <si>
     <t>ERS</t>
   </si>
   <si>
@@ -552,19 +553,22 @@
   </si>
   <si>
     <t>sample1</t>
+  </si>
+  <si>
+    <t>Sample_ext</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -591,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -607,8 +611,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:CB2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:CB2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:CB2">
+  <autoFilter ref="A1:CB2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -691,86 +695,86 @@
     <filterColumn colId="79" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="80">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Characteristic [reproductive process]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (GO:0022414)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (GO:0022414)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [soil]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (ENVO:00001998)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (ENVO:00001998)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [Soil pH]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (MIAPPE:0124)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (MIAPPE:0124)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [Growth facility]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (MIAPPE:0095)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (MIAPPE:0095)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Characteristic [plant health state]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:0000034)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:0000034)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Characteristic [plant disease]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (PSO:0000013)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (PSO:0000013)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Characteristic [Ploidy]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (NCIT:C17001)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (NCIT:C17001)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Characteristic [number of chromosomes]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (DPBO:0000031)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (DPBO:0000031)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Characteristic [estimated genome size]" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF (DPBO:0000032)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number (DPBO:0000032)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Characteristic [common name of organism]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (OBI:0003074)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (OBI:0003074)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Characteristic [subspecific taxonomic rank]" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Term Source REF (DPBO:0000037)" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Accession Number (DPBO:0000037)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Characteristic [Infraspecific name]" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Source REF (MIAPPE:0044)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Accession Number (MIAPPE:0044)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Parameter [Rooting condition]" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Term Source REF (MIAPPE:0115)" totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Accession Number (MIAPPE:0115)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Parameter [Rooting medium]" totalsRowFunction="none"/>
-    <tableColumn id="42" name="Term Source REF (MIAPPE:0116)" totalsRowFunction="none"/>
-    <tableColumn id="43" name="Term Accession Number (MIAPPE:0116)" totalsRowFunction="none"/>
-    <tableColumn id="44" name="Parameter [rooting medium macronutrients]" totalsRowFunction="none"/>
-    <tableColumn id="45" name="Term Source REF (DPBO:0000039)" totalsRowFunction="none"/>
-    <tableColumn id="46" name="Term Accession Number (DPBO:0000039)" totalsRowFunction="none"/>
-    <tableColumn id="47" name="Parameter [rooting medium micronutrients]" totalsRowFunction="none"/>
-    <tableColumn id="48" name="Term Source REF (DPBO:0000055)" totalsRowFunction="none"/>
-    <tableColumn id="49" name="Term Accession Number (DPBO:0000055)" totalsRowFunction="none"/>
-    <tableColumn id="50" name="Parameter [rooting medium organic supplements]" totalsRowFunction="none"/>
-    <tableColumn id="51" name="Term Source REF (DPBO:0000058)" totalsRowFunction="none"/>
-    <tableColumn id="52" name="Term Accession Number (DPBO:0000058)" totalsRowFunction="none"/>
-    <tableColumn id="53" name="Parameter [rooting medium carbon]" totalsRowFunction="none"/>
-    <tableColumn id="54" name="Term Source REF (DPBO:0000065)" totalsRowFunction="none"/>
-    <tableColumn id="55" name="Term Accession Number (DPBO:0000065)" totalsRowFunction="none"/>
-    <tableColumn id="56" name="Parameter [rooting medium regulators]" totalsRowFunction="none"/>
-    <tableColumn id="57" name="Term Source REF (DPBO:0000066)" totalsRowFunction="none"/>
-    <tableColumn id="58" name="Term Accession Number (DPBO:0000066)" totalsRowFunction="none"/>
-    <tableColumn id="59" name="Parameter [rooting medium solidifier]" totalsRowFunction="none"/>
-    <tableColumn id="60" name="Term Source REF (DPBO:0000067)" totalsRowFunction="none"/>
-    <tableColumn id="61" name="Term Accession Number (DPBO:0000067)" totalsRowFunction="none"/>
-    <tableColumn id="62" name="Parameter [rooting medium pH]" totalsRowFunction="none"/>
-    <tableColumn id="63" name="Term Source REF (DPBO:0000038)" totalsRowFunction="none"/>
-    <tableColumn id="64" name="Term Accession Number (DPBO:0000038)" totalsRowFunction="none"/>
-    <tableColumn id="65" name="Parameter [Air temperature]" totalsRowFunction="none"/>
-    <tableColumn id="66" name="Term Source REF (MIAPPE:0096)" totalsRowFunction="none"/>
-    <tableColumn id="67" name="Term Accession Number (MIAPPE:0096)" totalsRowFunction="none"/>
-    <tableColumn id="68" name="Parameter [plant nutrient treatment]" totalsRowFunction="none"/>
-    <tableColumn id="69" name="Term Source REF (EO:0007241)" totalsRowFunction="none"/>
-    <tableColumn id="70" name="Term Accession Number (EO:0007241)" totalsRowFunction="none"/>
-    <tableColumn id="71" name="Parameter [watering exposure]" totalsRowFunction="none"/>
-    <tableColumn id="72" name="Term Source REF (PECO:0007383)" totalsRowFunction="none"/>
-    <tableColumn id="73" name="Term Accession Number (PECO:0007383)" totalsRowFunction="none"/>
-    <tableColumn id="74" name="Parameter [plant treatment]" totalsRowFunction="none"/>
-    <tableColumn id="75" name="Term Source REF (EO:0001001)" totalsRowFunction="none"/>
-    <tableColumn id="76" name="Term Accession Number (EO:0001001)" totalsRowFunction="none"/>
-    <tableColumn id="77" name="Parameter [light regimen]" totalsRowFunction="none"/>
-    <tableColumn id="78" name="Term Source REF (EO:0007196)" totalsRowFunction="none"/>
-    <tableColumn id="79" name="Term Accession Number (EO:0007196)" totalsRowFunction="none"/>
-    <tableColumn id="80" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Characteristic [reproductive process]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (GO:0022414)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (GO:0022414)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [soil]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (ENVO:00001998)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (ENVO:00001998)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [Soil pH]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (MIAPPE:0124)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (MIAPPE:0124)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Parameter [Growth facility]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (MIAPPE:0095)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (MIAPPE:0095)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Characteristic [plant health state]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:0000034)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:0000034)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Characteristic [plant disease]"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (PSO:0000013)"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (PSO:0000013)"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Characteristic [Ploidy]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (NCIT:C17001)"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (NCIT:C17001)"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Characteristic [number of chromosomes]"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (DPBO:0000031)"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (DPBO:0000031)"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Characteristic [estimated genome size]"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Term Source REF (DPBO:0000032)"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Term Accession Number (DPBO:0000032)"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Characteristic [common name of organism]"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Term Source REF (OBI:0003074)"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Term Accession Number (OBI:0003074)"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Characteristic [subspecific taxonomic rank]"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Term Source REF (DPBO:0000037)"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Term Accession Number (DPBO:0000037)"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Characteristic [Infraspecific name]"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Term Source REF (MIAPPE:0044)"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Term Accession Number (MIAPPE:0044)"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Parameter [Rooting condition]"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Term Source REF (MIAPPE:0115)"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Term Accession Number (MIAPPE:0115)"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Parameter [Rooting medium]"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Term Source REF (MIAPPE:0116)"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Term Accession Number (MIAPPE:0116)"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Parameter [rooting medium macronutrients]"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Term Source REF (DPBO:0000039)"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Term Accession Number (DPBO:0000039)"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Parameter [rooting medium micronutrients]"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Term Source REF (DPBO:0000055)"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Term Accession Number (DPBO:0000055)"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Parameter [rooting medium organic supplements]"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Term Source REF (DPBO:0000058)"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Term Accession Number (DPBO:0000058)"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Parameter [rooting medium carbon]"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Term Source REF (DPBO:0000065)"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Term Accession Number (DPBO:0000065)"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Parameter [rooting medium regulators]"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Term Source REF (DPBO:0000066)"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Term Accession Number (DPBO:0000066)"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Parameter [rooting medium solidifier]"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Term Source REF (DPBO:0000067)"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Term Accession Number (DPBO:0000067)"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Parameter [rooting medium pH]"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Term Source REF (DPBO:0000038)"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Term Accession Number (DPBO:0000038)"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Parameter [Air temperature]"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Term Source REF (MIAPPE:0096)"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Term Accession Number (MIAPPE:0096)"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Parameter [plant nutrient treatment]"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Term Source REF (EO:0007241)"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Term Accession Number (EO:0007241)"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Parameter [watering exposure]"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Term Source REF (PECO:0007383)"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Term Accession Number (PECO:0007383)"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Parameter [plant treatment]"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Term Source REF (EO:0001001)"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Term Accession Number (EO:0001001)"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Parameter [light regimen]"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Term Source REF (EO:0007196)"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Term Accession Number (EO:0007196)"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1072,16 +1076,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1097,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1121,699 +1130,704 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CB2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>75</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>77</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>78</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>79</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>80</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>88</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>93</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>96</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>99</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>100</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>101</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>102</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>103</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>105</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>106</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>107</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>108</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>109</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>110</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>111</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>112</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>113</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>114</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>115</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>116</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>117</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>118</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>119</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>120</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>121</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>122</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>123</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>124</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>125</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>126</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>127</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>128</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>129</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>130</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>131</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>132</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>133</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>134</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>135</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>136</v>
       </c>
-      <c r="CB1" t="s">
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>142</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>143</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>144</v>
       </c>
-      <c r="H2" t="s">
-        <v>145</v>
-      </c>
       <c r="I2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" t="s">
         <v>146</v>
       </c>
-      <c r="J2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" t="s">
         <v>147</v>
       </c>
-      <c r="L2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>148</v>
       </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" t="s">
         <v>150</v>
       </c>
-      <c r="R2" t="s">
-        <v>146</v>
-      </c>
-      <c r="S2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>151</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>152</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>153</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z2" t="s">
         <v>154</v>
       </c>
-      <c r="X2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC2" t="s">
         <v>155</v>
       </c>
-      <c r="AA2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF2" t="s">
         <v>156</v>
       </c>
-      <c r="AD2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>157</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>158</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>159</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL2" t="s">
         <v>160</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO2" t="s">
         <v>161</v>
       </c>
-      <c r="AM2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>162</v>
       </c>
-      <c r="AP2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>163</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU2" t="s">
         <v>164</v>
       </c>
-      <c r="AS2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX2" t="s">
         <v>165</v>
       </c>
-      <c r="AV2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA2" t="s">
         <v>166</v>
       </c>
-      <c r="AY2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC2" t="s">
         <v>167</v>
       </c>
-      <c r="BB2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>168</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG2" t="s">
         <v>169</v>
       </c>
-      <c r="BE2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI2" t="s">
         <v>170</v>
       </c>
-      <c r="BH2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM2" t="s">
         <v>171</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP2" t="s">
         <v>172</v>
       </c>
-      <c r="BN2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS2" t="s">
         <v>173</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" t="s">
         <v>174</v>
       </c>
-      <c r="BT2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>175</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>176</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>177</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CB2" t="s">
         <v>178</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>146</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>146</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
